--- a/parameter_files/v1/lambdas.xlsx
+++ b/parameter_files/v1/lambdas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE378C85-3967-4D92-9317-83AD0718F439}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8BD403-85C6-4026-9496-0466B0B2D537}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,16 +730,18 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="23" max="23" width="14.7265625" customWidth="1"/>
+    <col min="26" max="26" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -861,9 +867,6 @@
       </c>
       <c r="B3" s="16"/>
       <c r="H3" s="6"/>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -874,9 +877,6 @@
       </c>
       <c r="B4" s="16"/>
       <c r="H4" s="6"/>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12">
@@ -890,7 +890,7 @@
       <c r="B5" s="16"/>
       <c r="H5" s="6"/>
       <c r="T5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -903,7 +903,7 @@
       <c r="B6" s="16"/>
       <c r="H6" s="6"/>
       <c r="T6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -937,9 +937,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="14">
-        <v>2</v>
-      </c>
+      <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14">

--- a/parameter_files/v1/lambdas.xlsx
+++ b/parameter_files/v1/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8BD403-85C6-4026-9496-0466B0B2D537}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB4B5225-8355-4EB1-BA98-835AA33B089F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -730,10 +730,10 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,9 +879,7 @@
       <c r="H4" s="6"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
-      <c r="Z4" s="12">
-        <v>1</v>
-      </c>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -903,9 +901,6 @@
       <c r="B6" s="16"/>
       <c r="H6" s="6"/>
       <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
         <v>1</v>
       </c>
     </row>
@@ -940,9 +935,7 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="14">
-        <v>2</v>
-      </c>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>

--- a/parameter_files/v1/lambdas.xlsx
+++ b/parameter_files/v1/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB4B5225-8355-4EB1-BA98-835AA33B089F}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862B47B6-10D3-446A-A72C-706FA8D75131}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>small growers</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>environmental orgs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
@@ -727,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617137F-8957-46B3-A8AD-7CB6BD779CD3}">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,7 +744,7 @@
     <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="23" max="23" width="14.7265625" customWidth="1"/>
-    <col min="26" max="26" width="18.90625" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -875,7 +878,9 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
@@ -898,7 +903,9 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="T6">
         <v>1</v>
@@ -1061,53 +1068,58 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
+      <c r="A27" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
     </row>
